--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847D294E-21B6-D54C-A9C5-BB1A961AE770}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9A4A9-14D3-3A45-A01E-A862BB5431C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
+    <workbookView xWindow="4280" yWindow="2960" windowWidth="27640" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="candidates" sheetId="1" r:id="rId1"/>
+    <sheet name="layout" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,10 +31,251 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>votes</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Tim Pawlenty</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Michelle Bachmann</t>
+  </si>
+  <si>
+    <t>Walter Mondale</t>
+  </si>
+  <si>
+    <t>Mitt Romney</t>
+  </si>
+  <si>
+    <t>Rick Santorum</t>
+  </si>
+  <si>
+    <t>Ron Paul</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Eugene McCarthy</t>
+  </si>
+  <si>
+    <t>Robert Kennedy</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Stephen M. Young</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Lyndon B. Johnson</t>
+  </si>
+  <si>
+    <t>George Smathers</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>contests</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>GA SC</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>OR WI IL PA NJ MA</t>
+  </si>
+  <si>
+    <t>CA SD NE IN</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>candidates</t>
+  </si>
+  <si>
+    <t>How Minnesota's candidates and their rivals fared in primary and general presidential elections</t>
+  </si>
+  <si>
+    <t>U.S. Election Atlas</t>
+  </si>
+  <si>
+    <t>Source: U.S. Election Atlas</t>
+  </si>
+  <si>
+    <t>Candidate namne</t>
+  </si>
+  <si>
+    <t>Candidate party</t>
+  </si>
+  <si>
+    <t>Type of election</t>
+  </si>
+  <si>
+    <t>Candidate home state</t>
+  </si>
+  <si>
+    <t>Election year</t>
+  </si>
+  <si>
+    <t>Number of votes received</t>
+  </si>
+  <si>
+    <t>Number of electoral votes or delegates received</t>
+  </si>
+  <si>
+    <t>Percentage of popular vote received</t>
+  </si>
+  <si>
+    <t>Number of contests won</t>
+  </si>
+  <si>
+    <t>Which states were won by candidate</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://uselectionatlas.org/RESULTS/national.php?f=0&amp;year=1984</t>
+  </si>
+  <si>
+    <t>https://uselectionatlas.org/RESULTS/national.php?f=0&amp;year=1968</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2012_Republican_Party_presidential_primaries</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/1968_Democratic_Party_presidential_primaries</t>
+  </si>
+  <si>
+    <t>WA TX MN MI WV PA MD CT RI MA ME DC</t>
+  </si>
+  <si>
+    <t>George Wallace</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR LA MS AL GA</t>
+  </si>
+  <si>
+    <t>MN DC</t>
+  </si>
+  <si>
+    <t>MN ND CO KS OK MO IA LA AL MS TN</t>
+  </si>
+  <si>
+    <t>Hubert H. Humphrey</t>
+  </si>
+  <si>
+    <t>https://www.270towin.com/1968_Election/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +303,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,12 +622,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC15CCC-D96A-3548-95EF-506B3DAB1BC3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2012</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41401</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2012</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10031336</v>
+      </c>
+      <c r="G4">
+        <v>1575</v>
+      </c>
+      <c r="H4">
+        <v>52.1</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3932069</v>
+      </c>
+      <c r="G5">
+        <v>245</v>
+      </c>
+      <c r="H5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2095795</v>
+      </c>
+      <c r="G6">
+        <v>177</v>
+      </c>
+      <c r="H6">
+        <v>10.9</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2734570</v>
+      </c>
+      <c r="G7">
+        <v>138</v>
+      </c>
+      <c r="H7">
+        <v>14.2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37577352</v>
+      </c>
+      <c r="G8">
+        <v>525</v>
+      </c>
+      <c r="H8">
+        <v>40.56</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="2">
+        <v>54455472</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>58.77</v>
+      </c>
+      <c r="I9">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="2">
+        <v>620409</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.67</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1968</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2914933</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1968</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2305148</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>30.6</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>1968</v>
+      </c>
+      <c r="F13" s="2">
+        <v>549140</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>7.3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>1968</v>
+      </c>
+      <c r="F14" s="2">
+        <v>383590</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>1968</v>
+      </c>
+      <c r="F15" s="2">
+        <v>236242</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3.1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1968</v>
+      </c>
+      <c r="F16" s="2">
+        <v>31783783</v>
+      </c>
+      <c r="G16">
+        <v>301</v>
+      </c>
+      <c r="H16">
+        <v>55.9</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1968</v>
+      </c>
+      <c r="F17" s="2">
+        <v>31271839</v>
+      </c>
+      <c r="G17">
+        <v>191</v>
+      </c>
+      <c r="H17">
+        <v>35.5</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>1968</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9901118</v>
+      </c>
+      <c r="G18">
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <v>8.6</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1968</v>
+      </c>
+      <c r="F19" s="2">
+        <v>243259</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.33</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859C1F9-9A3B-9041-9AFB-1943CCAE9A46}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D28D51-3607-DB46-BDE3-6607B242FB7E}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9A4A9-14D3-3A45-A01E-A862BB5431C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4040DEB-B961-6F43-887D-D1F39916C2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2960" windowWidth="27640" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
+    <workbookView xWindow="35680" yWindow="2900" windowWidth="23640" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -253,13 +253,16 @@
     <t>MN DC</t>
   </si>
   <si>
-    <t>MN ND CO KS OK MO IA LA AL MS TN</t>
-  </si>
-  <si>
     <t>Hubert H. Humphrey</t>
   </si>
   <si>
     <t>https://www.270towin.com/1968_Election/</t>
+  </si>
+  <si>
+    <t>MN IA LA ME</t>
+  </si>
+  <si>
+    <t>ND KS OK AL MS TN</t>
   </si>
 </sst>
 </file>
@@ -283,12 +286,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -303,11 +330,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +658,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,594 +702,594 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>2012</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>2012</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>41401</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>2012</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>10031336</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>1575</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>52.1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3932069</v>
+      </c>
+      <c r="G5" s="6">
+        <v>245</v>
+      </c>
+      <c r="H5" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2095795</v>
+      </c>
+      <c r="G6" s="6">
+        <v>177</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2734570</v>
+      </c>
+      <c r="G7" s="6">
+        <v>138</v>
+      </c>
+      <c r="H7" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="5">
+        <v>37577352</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40.56</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="5">
+        <v>54455472</v>
+      </c>
+      <c r="G9" s="4">
+        <v>525</v>
+      </c>
+      <c r="H9" s="4">
+        <v>58.77</v>
+      </c>
+      <c r="I9" s="4">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="5">
+        <v>620409</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2914933</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2305148</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F13" s="3">
+        <v>549140</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F14" s="3">
+        <v>383590</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F15" s="3">
+        <v>236242</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1968</v>
+      </c>
+      <c r="F16" s="9">
+        <v>31783783</v>
+      </c>
+      <c r="G16" s="8">
+        <v>301</v>
+      </c>
+      <c r="H16" s="8">
+        <v>55.9</v>
+      </c>
+      <c r="I16" s="8">
+        <v>35</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>2012</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3932069</v>
-      </c>
-      <c r="G5">
-        <v>245</v>
-      </c>
-      <c r="H5">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>2012</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2095795</v>
-      </c>
-      <c r="G6">
-        <v>177</v>
-      </c>
-      <c r="H6">
-        <v>10.9</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1968</v>
+      </c>
+      <c r="F17" s="9">
+        <v>31271839</v>
+      </c>
+      <c r="G17" s="8">
+        <v>191</v>
+      </c>
+      <c r="H17" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="I17" s="8">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2012</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2734570</v>
-      </c>
-      <c r="G7">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>14.2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="J17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1984</v>
-      </c>
-      <c r="F8" s="2">
-        <v>37577352</v>
-      </c>
-      <c r="G8">
-        <v>525</v>
-      </c>
-      <c r="H8">
-        <v>40.56</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1968</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9901118</v>
+      </c>
+      <c r="G18" s="8">
+        <v>46</v>
+      </c>
+      <c r="H18" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1984</v>
-      </c>
-      <c r="F9" s="2">
-        <v>54455472</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>58.77</v>
-      </c>
-      <c r="I9">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1984</v>
-      </c>
-      <c r="F10" s="2">
-        <v>620409</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.67</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
+      <c r="E19" s="8">
         <v>1968</v>
       </c>
-      <c r="F11" s="2">
-        <v>2914933</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>1968</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2305148</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>30.6</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>1968</v>
-      </c>
-      <c r="F13" s="2">
-        <v>549140</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>7.3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>1968</v>
-      </c>
-      <c r="F14" s="2">
-        <v>383590</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
-        <v>1968</v>
-      </c>
-      <c r="F15" s="2">
-        <v>236242</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3.1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1968</v>
-      </c>
-      <c r="F16" s="2">
-        <v>31783783</v>
-      </c>
-      <c r="G16">
-        <v>301</v>
-      </c>
-      <c r="H16">
-        <v>55.9</v>
-      </c>
-      <c r="I16">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>1968</v>
-      </c>
-      <c r="F17" s="2">
-        <v>31271839</v>
-      </c>
-      <c r="G17">
-        <v>191</v>
-      </c>
-      <c r="H17">
-        <v>35.5</v>
-      </c>
-      <c r="I17">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>1968</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9901118</v>
-      </c>
-      <c r="G18">
-        <v>46</v>
-      </c>
-      <c r="H18">
-        <v>8.6</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>1968</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
         <v>243259</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
         <v>0.33</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>39</v>
       </c>
     </row>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4040DEB-B961-6F43-887D-D1F39916C2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC4F82-24B8-044C-B8DF-08574676433E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35680" yWindow="2900" windowWidth="23640" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
+    <workbookView xWindow="140" yWindow="2040" windowWidth="16340" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -263,6 +263,39 @@
   </si>
   <si>
     <t>ND KS OK AL MS TN</t>
+  </si>
+  <si>
+    <t>Earl Warren</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Robert A. Taft</t>
+  </si>
+  <si>
+    <t>Thomas E. Dewey</t>
+  </si>
+  <si>
+    <t>Riley A. Bender</t>
+  </si>
+  <si>
+    <t>Leverett Saltonstall</t>
+  </si>
+  <si>
+    <t>Herbert E. Hitchcock</t>
+  </si>
+  <si>
+    <t>Harold Stassen</t>
+  </si>
+  <si>
+    <t>NE WI WV PA</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -286,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -330,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -341,6 +380,8 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC15CCC-D96A-3548-95EF-506B3DAB1BC3}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,6 +1332,230 @@
       </c>
       <c r="J19" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F20" s="11">
+        <v>771295</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>27</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F21" s="11">
+        <v>627321</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>22</v>
+      </c>
+      <c r="I21" s="10">
+        <v>4</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F22" s="11">
+        <v>464741</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F23" s="11">
+        <v>330799</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F24" s="11">
+        <v>324029</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F25" s="11">
+        <v>72191</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F26" s="11">
+        <v>45463</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC4F82-24B8-044C-B8DF-08574676433E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763D2DC-4C82-684C-B502-8EF2DB4EC4D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="2040" windowWidth="16340" windowHeight="16940" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
+    <workbookView xWindow="5020" yWindow="460" windowWidth="25440" windowHeight="19440" activeTab="1" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
-    <sheet name="layout" sheetId="2" r:id="rId2"/>
-    <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="timeline" sheetId="4" r:id="rId2"/>
+    <sheet name="layout" sheetId="2" r:id="rId3"/>
+    <sheet name="source" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -184,12 +185,6 @@
     <t>How Minnesota's candidates and their rivals fared in primary and general presidential elections</t>
   </si>
   <si>
-    <t>U.S. Election Atlas</t>
-  </si>
-  <si>
-    <t>Source: U.S. Election Atlas</t>
-  </si>
-  <si>
     <t>Candidate namne</t>
   </si>
   <si>
@@ -296,6 +291,57 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>d_candidates</t>
+  </si>
+  <si>
+    <t>r_candidates</t>
+  </si>
+  <si>
+    <t>i_candidates</t>
+  </si>
+  <si>
+    <t>Stassen</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
+    <t>Humphrey, McCarthy</t>
+  </si>
+  <si>
+    <t>Mondale</t>
+  </si>
+  <si>
+    <t>Pawlenty, Bachmann</t>
+  </si>
+  <si>
+    <t>Klobuchar</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>Democratic candidates</t>
+  </si>
+  <si>
+    <t>Republican candidates</t>
+  </si>
+  <si>
+    <t>Independent candidates</t>
+  </si>
+  <si>
+    <t>Timeline of years Minnesotans have run for president</t>
+  </si>
+  <si>
+    <t>Source: Dave Leip's Atlas of U.S. Presidential Elections, Star Tribune reporting</t>
+  </si>
+  <si>
+    <t>Dave Leip's Atlas of U.S. Presidential Elections, Star Tribune reporting</t>
+  </si>
+  <si>
+    <t>Star Tribune reporting</t>
   </si>
 </sst>
 </file>
@@ -698,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC15CCC-D96A-3548-95EF-506B3DAB1BC3}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +786,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -839,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -871,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -903,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -967,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1034,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1069,7 +1115,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1248,7 @@
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>28</v>
@@ -1232,15 +1278,15 @@
         <v>41</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>28</v>
@@ -1267,12 +1313,12 @@
         <v>12</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
@@ -1281,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="8">
         <v>1968</v>
@@ -1299,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1336,7 +1382,7 @@
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>27</v>
@@ -1368,7 +1414,7 @@
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>27</v>
@@ -1395,12 +1441,12 @@
         <v>4</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>27</v>
@@ -1432,7 +1478,7 @@
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>27</v>
@@ -1459,12 +1505,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>27</v>
@@ -1473,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="10">
         <v>1948</v>
@@ -1491,12 +1537,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>27</v>
@@ -1528,7 +1574,7 @@
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -1537,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="10">
         <v>1948</v>
@@ -1555,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1564,11 +1610,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257E2B79-7C5A-B249-96DD-97B6858152BA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1948</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1952</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1968</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1972</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1976</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1980</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1984</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1988</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859C1F9-9A3B-9041-9AFB-1943CCAE9A46}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1809,18 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1608,15 +1828,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D28D51-3607-DB46-BDE3-6607B242FB7E}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1628,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,7 +1859,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1644,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1660,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1899,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1684,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1692,7 +1915,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1700,7 +1923,44 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763D2DC-4C82-684C-B502-8EF2DB4EC4D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C0ED0-65F7-3841-8031-B6EA58411727}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="460" windowWidth="25440" windowHeight="19440" activeTab="1" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190201-prez/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C0ED0-65F7-3841-8031-B6EA58411727}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2EFDA8-A0B3-6A42-9014-93DEF6FA6B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="460" windowWidth="25440" windowHeight="19440" activeTab="1" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
+    <workbookView xWindow="35340" yWindow="4640" windowWidth="25440" windowHeight="19440" xr2:uid="{7F103575-3273-CB45-B8C7-3E62F9E8905C}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -227,24 +227,15 @@
     <t>https://uselectionatlas.org/RESULTS/national.php?f=0&amp;year=1968</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/2012_Republican_Party_presidential_primaries</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/1968_Democratic_Party_presidential_primaries</t>
   </si>
   <si>
-    <t>WA TX MN MI WV PA MD CT RI MA ME DC</t>
-  </si>
-  <si>
     <t>George Wallace</t>
   </si>
   <si>
     <t>AL</t>
   </si>
   <si>
-    <t>AR LA MS AL GA</t>
-  </si>
-  <si>
     <t>MN DC</t>
   </si>
   <si>
@@ -254,12 +245,6 @@
     <t>https://www.270towin.com/1968_Election/</t>
   </si>
   <si>
-    <t>MN IA LA ME</t>
-  </si>
-  <si>
-    <t>ND KS OK AL MS TN</t>
-  </si>
-  <si>
     <t>Earl Warren</t>
   </si>
   <si>
@@ -342,6 +327,33 @@
   </si>
   <si>
     <t>Star Tribune reporting</t>
+  </si>
+  <si>
+    <t>https://uselectionatlas.org/RESULTS/national.php?f=0&amp;year=2012&amp;elect=2</t>
+  </si>
+  <si>
+    <t>GOP 2012</t>
+  </si>
+  <si>
+    <t>ND MN IA MO CO KS OK LA AL MS TN</t>
+  </si>
+  <si>
+    <t>John Huntsman</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/elections/2012/primaries/states/iowa.html</t>
+  </si>
+  <si>
+    <t>CT DC HI ME MD MA MI MN NY PA RI TX WA WV</t>
+  </si>
+  <si>
+    <t>AL AR GA LA MS</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20091027101746/http://geocities.com/Athens/Rhodes/3991/Dem1968.html</t>
   </si>
 </sst>
 </file>
@@ -742,19 +754,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC15CCC-D96A-3548-95EF-506B3DAB1BC3}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -820,8 +833,11 @@
       <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -841,10 +857,10 @@
         <v>41401</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -852,10 +868,13 @@
       <c r="J3" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -864,33 +883,33 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E4" s="6">
         <v>2012</v>
       </c>
       <c r="F4" s="7">
-        <v>10031336</v>
+        <v>84000</v>
       </c>
       <c r="G4" s="6">
-        <v>1575</v>
+        <v>2</v>
       </c>
       <c r="H4" s="6">
-        <v>52.1</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -899,30 +918,33 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6">
         <v>2012</v>
       </c>
       <c r="F5" s="7">
-        <v>3932069</v>
+        <v>10031336</v>
       </c>
       <c r="G5" s="6">
-        <v>245</v>
+        <v>1575</v>
       </c>
       <c r="H5" s="6">
-        <v>20.399999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="I5" s="6">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -931,30 +953,33 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <v>2012</v>
       </c>
       <c r="F6" s="7">
-        <v>2095795</v>
+        <v>3932069</v>
       </c>
       <c r="G6" s="6">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="H6" s="6">
-        <v>10.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I6" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>27</v>
@@ -963,164 +988,173 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>2012</v>
       </c>
       <c r="F7" s="7">
+        <v>2095795</v>
+      </c>
+      <c r="G7" s="6">
+        <v>177</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F8" s="7">
         <v>2734570</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>138</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>14.2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="K8" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1984</v>
-      </c>
-      <c r="F8" s="5">
-        <v>37577352</v>
-      </c>
-      <c r="G8" s="4">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4">
-        <v>40.56</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>1984</v>
       </c>
       <c r="F9" s="5">
-        <v>54455472</v>
+        <v>37577352</v>
       </c>
       <c r="G9" s="4">
-        <v>525</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4">
-        <v>58.77</v>
+        <v>43.4</v>
       </c>
       <c r="I9" s="4">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
         <v>1984</v>
       </c>
       <c r="F10" s="5">
-        <v>620409</v>
+        <v>54455472</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="H10" s="4">
-        <v>0.67</v>
+        <v>58.77</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1984</v>
+      </c>
+      <c r="F11" s="5">
+        <v>620409</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1968</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2914933</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -1129,30 +1163,33 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>1968</v>
       </c>
       <c r="F12" s="3">
-        <v>2305148</v>
+        <v>2914933</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>30.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I12" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -1161,30 +1198,33 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>1968</v>
       </c>
       <c r="F13" s="3">
-        <v>549140</v>
+        <v>2305148</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>7.3</v>
+        <v>30.6</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1193,30 +1233,30 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>1968</v>
       </c>
       <c r="F14" s="3">
-        <v>383590</v>
+        <v>549140</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>5.0999999999999996</v>
+        <v>7.3</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -1225,132 +1265,132 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
         <v>1968</v>
       </c>
       <c r="F15" s="3">
-        <v>236242</v>
+        <v>383590</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>3.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="E16" s="2">
+        <v>1968</v>
+      </c>
+      <c r="F16" s="3">
+        <v>236242</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1968</v>
-      </c>
-      <c r="F16" s="9">
-        <v>31783783</v>
-      </c>
-      <c r="G16" s="8">
-        <v>301</v>
-      </c>
-      <c r="H16" s="8">
-        <v>55.9</v>
-      </c>
-      <c r="I16" s="8">
-        <v>35</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E17" s="8">
         <v>1968</v>
       </c>
       <c r="F17" s="9">
-        <v>31271839</v>
+        <v>31783783</v>
       </c>
       <c r="G17" s="8">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="H17" s="8">
-        <v>35.5</v>
+        <v>43.4</v>
       </c>
       <c r="I17" s="8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E18" s="8">
         <v>1968</v>
       </c>
       <c r="F18" s="9">
-        <v>9901118</v>
+        <v>31271839</v>
       </c>
       <c r="G18" s="8">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="H18" s="8">
-        <v>8.6</v>
+        <v>42.7</v>
       </c>
       <c r="I18" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>28</v>
@@ -1359,62 +1399,62 @@
         <v>24</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8">
         <v>1968</v>
       </c>
       <c r="F19" s="9">
+        <v>9901118</v>
+      </c>
+      <c r="G19" s="8">
+        <v>46</v>
+      </c>
+      <c r="H19" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1968</v>
+      </c>
+      <c r="F20" s="9">
         <v>243259</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
         <v>0.33</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1948</v>
-      </c>
-      <c r="F20" s="11">
-        <v>771295</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>27</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>27</v>
@@ -1423,28 +1463,28 @@
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10">
         <v>1948</v>
       </c>
       <c r="F21" s="11">
-        <v>627321</v>
+        <v>771295</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
       <c r="H21" s="10">
+        <v>27</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="10">
-        <v>4</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>78</v>
       </c>
@@ -1455,30 +1495,30 @@
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E22" s="10">
         <v>1948</v>
       </c>
       <c r="F22" s="11">
-        <v>464741</v>
+        <v>627321</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <v>16.3</v>
+        <v>22</v>
       </c>
       <c r="I22" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>27</v>
@@ -1487,30 +1527,30 @@
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="10">
         <v>1948</v>
       </c>
       <c r="F23" s="11">
-        <v>330799</v>
+        <v>464741</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="10">
-        <v>11.6</v>
+        <v>16.3</v>
       </c>
       <c r="I23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>27</v>
@@ -1519,30 +1559,30 @@
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E24" s="10">
         <v>1948</v>
       </c>
       <c r="F24" s="11">
-        <v>324029</v>
+        <v>330799</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="I24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>27</v>
@@ -1551,30 +1591,30 @@
         <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E25" s="10">
         <v>1948</v>
       </c>
       <c r="F25" s="11">
-        <v>72191</v>
+        <v>324029</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>2.5</v>
+        <v>11.3</v>
       </c>
       <c r="I25" s="10">
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -1583,25 +1623,57 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E26" s="10">
         <v>1948</v>
       </c>
       <c r="F26" s="11">
-        <v>45463</v>
+        <v>72191</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="I26" s="10">
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1948</v>
+      </c>
+      <c r="F27" s="11">
+        <v>45463</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257E2B79-7C5A-B249-96DD-97B6858152BA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1629,13 +1701,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,7 +1715,7 @@
         <v>1944</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1651,7 +1723,7 @@
         <v>1948</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1659,7 +1731,7 @@
         <v>1952</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1667,7 +1739,7 @@
         <v>1964</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1675,10 +1747,10 @@
         <v>1968</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1686,7 +1758,7 @@
         <v>1972</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1694,7 +1766,7 @@
         <v>1976</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,7 +1774,7 @@
         <v>1980</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,10 +1782,10 @@
         <v>1984</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,7 +1793,7 @@
         <v>1988</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,10 +1801,10 @@
         <v>1992</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1740,7 +1812,7 @@
         <v>1998</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,7 +1820,7 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,7 +1828,7 @@
         <v>2012</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,7 +1836,7 @@
         <v>2020</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859C1F9-9A3B-9041-9AFB-1943CCAE9A46}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1809,18 +1881,23 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +2005,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1941,26 +2018,26 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
